--- a/biology/Zoologie/Tom_Browning_(entomologiste)/Tom_Browning_(entomologiste).xlsx
+++ b/biology/Zoologie/Tom_Browning_(entomologiste)/Tom_Browning_(entomologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas Oakley Browning (né le 28 janvier 1920 et mort en avril 1998) est un scientifique australien spécialisé en entomologie[1]. Depuis sa retraite en 1983, il est professeur émérite de l'université d'Adélaïde[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Oakley Browning (né le 28 janvier 1920 et mort en avril 1998) est un scientifique australien spécialisé en entomologie. Depuis sa retraite en 1983, il est professeur émérite de l'université d'Adélaïde.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) T. O. Browning, Australian Dictionary of Biography, vol. 8, Melbourne, Melbourne University Press, 1981 (lire en ligne), « Davidson, James (1885-1945) », p. 226–227
 (en) Charles Birch et T. O. Browning, « Herbert Andrewartha 1907-1992 », Historical Records of Australian Science, vol. 9, no 3,‎ 1993, p. 258–268.</t>
